--- a/泰国.xlsx
+++ b/泰国.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="准备工作" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谷歌地图，airbnb，天巡旅行，神州专车，智行火车票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石家庄到普吉岛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +227,10 @@
   </si>
   <si>
     <t>https://traveldetail.fliggy.com/item.htm?spm=a1z10.1-b-s.w10971653-17221516621.8.OOhEo6&amp;id=537868703827&amp;scene=taobao_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌地图，airbnb，天巡旅行，神州专车，智行火车票，Uber（国际版）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -703,10 +703,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -735,41 +735,41 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
         <v>0.3923611111111111</v>
@@ -784,21 +784,21 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>3.4027777777777775E-2</v>
@@ -807,15 +807,15 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>0.21527777777777779</v>
@@ -824,18 +824,18 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>0.3923611111111111</v>
@@ -844,7 +844,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -854,17 +854,17 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/泰国.xlsx
+++ b/泰国.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="准备工作" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>护照</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,39 +110,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石家庄到普吉岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巴东、卡伦、卡塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>春秋航空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去程机票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8H55M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>航司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450+20元</t>
+    <t>火车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神州专车送机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄机场到普吉机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内签太慢耽误行程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌地图装不上？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普吉岛 or 苏梅岛 or 清迈 or 曼谷（一种或两种组合）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游玩项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://traveldetail.fliggy.com/item.htm?spm=a1z10.1-b-s.w10971653-17221516621.8.OOhEo6&amp;id=537868703827&amp;scene=taobao_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌地图，airbnb，天巡旅行，神州专车，智行火车票，Uber（国际版）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,15 +186,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出发时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到达时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体行程</t>
+    <t>方案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空（9C8745）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途牛旅游网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津站到石家庄北站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海T2到上海浦东T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海浦东T2到普吉国际机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空（9C8971）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>762元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄北站到石家庄正定机场T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返程机票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津到普吉岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普吉岛到天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>690元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>370元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普吉机场到上海浦东T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空（9C8972）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海浦东T1到天津滨海T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>980元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日、二、五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一程晚点！！！价格浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普吉机场到石家庄正定T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空（9C8746）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄正定机场T1到石家庄北站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄北站到天津站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,71 +341,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>z194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津到石家庄北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石家庄北到石家庄机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神州专车送机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石家庄机场到普吉机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9C8745</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>470元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出行方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国内签太慢耽误行程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌地图装不上？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普吉岛 or 苏梅岛 or 清迈 or 曼谷（一种或两种组合）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游玩项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://traveldetail.fliggy.com/item.htm?spm=a1z10.1-b-s.w10971653-17221516621.8.OOhEo6&amp;id=537868703827&amp;scene=taobao_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌地图，airbnb，天巡旅行，神州专车，智行火车票，Uber（国际版）</t>
+    <t>G1298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需火车飞机联运比较麻烦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,12 +385,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,7 +417,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,6 +425,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -649,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -681,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -703,10 +838,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -721,84 +856,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.72222222222222221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
         <v>3.4027777777777775E-2</v>
@@ -807,15 +920,18 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
         <v>0.21527777777777779</v>
@@ -824,18 +940,21 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>0.3923611111111111</v>
@@ -844,33 +963,329 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="E14" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
-        <v>52</v>
+    <row r="21" spans="1:9">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="D35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="D42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/泰国.xlsx
+++ b/泰国.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="准备工作" sheetId="1" r:id="rId1"/>
     <sheet name="普吉岛" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="苏梅岛" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
   <si>
     <t>护照</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,14 @@
   </si>
   <si>
     <t>需火车飞机联运比较麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空需提前购买托运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -842,6 +850,17 @@
       </c>
       <c r="E9" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -858,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1293,13 +1312,437 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="D35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="D42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/泰国.xlsx
+++ b/泰国.xlsx
@@ -9,14 +9,16 @@
   <sheets>
     <sheet name="准备工作" sheetId="1" r:id="rId1"/>
     <sheet name="普吉岛" sheetId="2" r:id="rId2"/>
-    <sheet name="苏梅岛" sheetId="3" r:id="rId3"/>
+    <sheet name="曼谷" sheetId="3" r:id="rId3"/>
+    <sheet name="清迈" sheetId="4" r:id="rId4"/>
+    <sheet name="苏梅岛" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>护照</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,11 +359,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行李</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>春秋航空需提前购买托运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津到曼谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海T1到曼谷廊曼T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷鸟航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1568元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行李托运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海浦东T2到曼谷素万那普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空（9C8579）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同程旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>457元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>777元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼谷到天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼谷廊曼T1到天津滨海T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷鸟航空（XW880）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1397元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏梅岛只能从泰国内陆出发 除非你很有钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +809,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -854,10 +924,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -878,7 +948,7 @@
   <dimension ref="A2:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1312,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I42"/>
+  <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1339,7 +1409,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1361,388 +1431,287 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2">
-        <v>3.4027777777777775E-2</v>
+        <v>0.83680555555555547</v>
       </c>
       <c r="F7" s="2">
-        <v>0.20486111111111113</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.21527777777777779</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.68819444444444444</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.84375</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="2">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.14583333333333334</v>
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="D17" s="3" t="s">
+    <row r="23" spans="1:9">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="D32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E32" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="5:6">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="G33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="D35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.1423611111111111</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="G40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="D42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/泰国.xlsx
+++ b/泰国.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="准备工作" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>护照</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>470元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出行方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,14 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>320元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>762元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石家庄北站到石家庄正定机场T1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>690元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>370元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,14 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>560元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>980元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>允许日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>470元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石家庄正定机场T1到石家庄北站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,18 +323,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>784.5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需火车飞机联运比较麻烦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>春秋航空需提前购买托运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天津到曼谷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>777元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曼谷到天津</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,6 +392,82 @@
   </si>
   <si>
     <t>返程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1328元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>976元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1346元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>931元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1351元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1081元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1395.5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案3（推荐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海到普吉机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kiwi.com/cn/search/%E5%A4%A9%E6%B4%A5%E5%B8%82-%E4%B8%AD%E5%9B%BD-250km/%E6%99%AE%E5%90%89%E5%B8%82-%E6%B3%B0%E5%9B%BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1042元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1042元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能需提前购买托运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过境签证？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>876元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1333元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -862,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -894,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -916,18 +952,18 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -945,10 +981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I42"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -972,7 +1008,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -983,18 +1019,18 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -1012,12 +1048,12 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1032,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1043,7 +1079,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2">
         <v>0.3923611111111111</v>
@@ -1052,10 +1088,10 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1064,44 +1100,44 @@
     </row>
     <row r="11" spans="1:9">
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>0.68819444444444444</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>0.75347222222222221</v>
@@ -1110,21 +1146,21 @@
         <v>0.84375</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <v>0.95138888888888884</v>
@@ -1133,10 +1169,10 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1145,236 +1181,290 @@
     </row>
     <row r="17" spans="1:9">
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2">
         <v>0.3923611111111111</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>15</v>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" t="s">
-        <v>23</v>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="1" t="s">
-        <v>39</v>
+      <c r="B25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" t="s">
-        <v>69</v>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" t="s">
-        <v>71</v>
+      <c r="A32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" t="s">
         <v>65</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="G33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="D35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="D39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="G42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" t="s">
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G44" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="H44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="D46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" t="s">
         <v>76</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.1423611111111111</v>
-      </c>
-      <c r="G38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="G40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="D42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B29" r:id="rId1"/>
+    <hyperlink ref="D20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1385,7 +1475,7 @@
   <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1409,7 +1499,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1420,24 +1510,24 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2">
         <v>0.83680555555555547</v>
@@ -1446,10 +1536,10 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1458,7 +1548,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>0.21527777777777779</v>
@@ -1467,35 +1557,35 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
         <v>0.33333333333333331</v>
@@ -1504,21 +1594,21 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2">
         <v>0.55208333333333337</v>
@@ -1527,10 +1617,10 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1539,7 +1629,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2">
         <v>0.37847222222222227</v>
@@ -1548,13 +1638,13 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1566,34 +1656,34 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2">
         <v>0.55555555555555558</v>
@@ -1602,15 +1692,15 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2">
         <v>0.1875</v>
@@ -1619,13 +1709,13 @@
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="5:6">
@@ -1648,12 +1738,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:7">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1664,7 +1839,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1678,12 +1853,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1695,7 +1870,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/泰国.xlsx
+++ b/泰国.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010" activeTab="1"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>护照</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>酒店范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>airbnb,携程，agoda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>巴东、卡伦、卡塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去程机票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,30 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神州专车送机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石家庄机场到普吉机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>飞机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>春秋航空（9C8745）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天津站到石家庄北站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天津滨海T2到上海浦东T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石家庄北站到石家庄正定机场T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返程机票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,23 +200,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方案1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普吉机场到上海浦东T2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出行方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春秋航空（9C8972）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海浦东T1到天津滨海T2</t>
+    <t>允许日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一程晚点！！！价格浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津到曼谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海T1到曼谷廊曼T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行李托运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空（9C8579）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同程旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>457元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼谷到天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼谷廊曼T1到天津滨海T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷鸟航空（XW880）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1397元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏梅岛只能从泰国内陆出发 除非你很有钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>976元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1346元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案3（推荐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海到普吉机场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,86 +288,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>420元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许日期</t>
+    <t>https://www.kiwi.com/cn/search/%E5%A4%A9%E6%B4%A5%E5%B8%82-%E4%B8%AD%E5%9B%BD-250km/%E6%99%AE%E5%90%89%E5%B8%82-%E6%B3%B0%E5%9B%BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1042元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每天</t>
-  </si>
-  <si>
-    <t>每天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日、二、五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一程晚点！！！价格浮动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普吉机场到石家庄正定T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春秋航空（9C8746）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石家庄正定机场T1到石家庄北站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石家庄北站到天津站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1298</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122.5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需火车飞机联运比较麻烦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津到曼谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津滨海T1到曼谷廊曼T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷鸟航空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1568元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格浮动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行李托运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1042元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能需提前购买托运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过境签证？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>876元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1333元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1027元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非凡旅行（GS7905-GS7953）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普吉机场到天津滨海T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非凡旅行（GS7954-PN6237）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1233元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非凡旅行（CZ6054-CZ3301）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1697元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>803元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡中转，是否需要过境签证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途牛旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,119 +368,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>春秋航空（9C8579）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同程旅游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>457元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曼谷到天津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曼谷廊曼T1到天津滨海T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷鸟航空（XW880）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1397元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏梅岛只能从泰国内陆出发 除非你很有钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1026元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1328元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>976元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1346元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>931元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1351元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1081元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1395.5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案3（推荐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津滨海到普吉机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.kiwi.com/cn/search/%E5%A4%A9%E6%B4%A5%E5%B8%82-%E4%B8%AD%E5%9B%BD-250km/%E6%99%AE%E5%90%89%E5%B8%82-%E6%B3%B0%E5%9B%BD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1042元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1042元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能需提前购买托运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过境签证？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>876元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1333元</t>
+    <t>天津滨海T2到曼谷苏汪纳蓬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程旅游（BL9714）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1079元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往返机票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很便宜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,6 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -870,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -898,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -914,15 +832,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -930,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -938,13 +856,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -952,18 +870,18 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -981,10 +899,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I46"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -998,17 +917,17 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1019,452 +938,334 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.4027777777777775E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.20486111111111113</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="2">
-        <v>0.21527777777777779</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="F8" s="2">
-        <v>0.27083333333333331</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="G9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.68819444444444444</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
-      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.84375</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" s="2">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.14583333333333334</v>
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>105</v>
+    <row r="20" spans="1:8">
+      <c r="D20" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E20" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.65625</v>
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="2">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="F22" s="4" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="D32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="D37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="G36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
       <c r="E37" s="2">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="D39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.1423611111111111</v>
-      </c>
-      <c r="G42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="G44" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="D46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1"/>
-    <hyperlink ref="D20" r:id="rId2"/>
+    <hyperlink ref="B23" r:id="rId1"/>
+    <hyperlink ref="D13" r:id="rId2"/>
+    <hyperlink ref="D18" r:id="rId3" display="https://www.kiwi.com/cn/search/%E5%A4%A9%E6%B4%A5%E5%B8%82-%E4%B8%AD%E5%9B%BD-250km/%E6%99%AE%E5%90%89%E5%B8%82-%E6%B3%B0%E5%9B%BD"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1472,10 +1273,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I37"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1489,17 +1291,17 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1510,36 +1312,36 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
-        <v>0.83680555555555547</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="F7" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1548,44 +1350,44 @@
     </row>
     <row r="9" spans="1:9">
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
-        <v>0.21527777777777779</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2">
         <v>0.33333333333333331</v>
@@ -1594,21 +1396,21 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2">
         <v>0.55208333333333337</v>
@@ -1617,10 +1419,10 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1629,7 +1431,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2">
         <v>0.37847222222222227</v>
@@ -1638,97 +1440,155 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="1"/>
+    <row r="17" spans="1:9">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" t="s">
-        <v>87</v>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E31" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="H30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="D32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="5:6">
+    <row r="36" spans="1:6">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1738,6 +1598,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B4:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1836,6 +1697,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1853,12 +1715,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1870,7 +1732,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/泰国.xlsx
+++ b/泰国.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>护照</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,46 +216,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天津滨海T1到曼谷廊曼T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格浮动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行李托运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>春秋航空（9C8579）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同程旅游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>457元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曼谷到天津</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曼谷廊曼T1到天津滨海T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷鸟航空（XW880）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1397元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,38 +256,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.kiwi.com/cn/search/%E5%A4%A9%E6%B4%A5%E5%B8%82-%E4%B8%AD%E5%9B%BD-250km/%E6%99%AE%E5%90%89%E5%B8%82-%E6%B3%B0%E5%9B%BD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1042元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1042元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可能需提前购买托运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过境签证？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>876元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1333元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1027元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,14 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非凡旅行（GS7954-PN6237）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1233元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>非凡旅行（CZ6054-CZ3301）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,43 +280,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>803元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新加坡中转，是否需要过境签证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>途牛旅游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海浦东T2到曼谷素万那普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津滨海T2到曼谷苏汪纳蓬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>携程旅游（BL9714）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1079元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>往返机票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>很便宜</t>
+    <t>GOTOGATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海到曼谷廊曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>748元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼谷廊曼到天津滨海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>809元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去程+返程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>887元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去程方案2+返程方案1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,10 +818,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -902,8 +842,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -987,7 +927,7 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
@@ -1008,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>43</v>
@@ -1024,30 +964,36 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
       </c>
       <c r="E13" s="2">
         <v>0.3888888888888889</v>
       </c>
       <c r="F13" s="2">
-        <v>0.65625</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1059,27 +1005,24 @@
         <v>32</v>
       </c>
       <c r="E15" s="2">
-        <v>0.53819444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1092,13 +1035,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2">
         <v>0.57291666666666663</v>
@@ -1107,7 +1050,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -1128,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>43</v>
@@ -1167,22 +1110,25 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2">
-        <v>0.13194444444444445</v>
+        <v>0.875</v>
       </c>
       <c r="F30" s="2">
-        <v>0.85763888888888884</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1190,13 +1136,13 @@
         <v>32</v>
       </c>
       <c r="E32" s="2">
-        <v>0.68402777777777779</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>43</v>
@@ -1215,13 +1161,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2">
         <v>0.17361111111111113</v>
@@ -1230,7 +1176,7 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1244,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>43</v>
@@ -1252,20 +1198,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1"/>
-    <hyperlink ref="D13" r:id="rId2"/>
-    <hyperlink ref="D18" r:id="rId3" display="https://www.kiwi.com/cn/search/%E5%A4%A9%E6%B4%A5%E5%B8%82-%E4%B8%AD%E5%9B%BD-250km/%E6%99%AE%E5%90%89%E5%B8%82-%E6%B3%B0%E5%9B%BD"/>
+    <hyperlink ref="D18" r:id="rId2" display="https://www.kiwi.com/cn/search/%E5%A4%A9%E6%B4%A5%E5%B8%82-%E4%B8%AD%E5%9B%BD-250km/%E6%99%AE%E5%90%89%E5%B8%82-%E6%B3%B0%E5%9B%BD"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1274,10 +1219,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1289,28 +1234,28 @@
     <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1321,274 +1266,131 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2">
-        <v>0.3888888888888889</v>
+        <v>0.83680555555555547</v>
       </c>
       <c r="F7" s="2">
-        <v>0.78819444444444453</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2">
-        <v>0.44097222222222227</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.71180555555555547</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="D15" s="3" t="s">
+    <row r="21" spans="1:8">
+      <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E21" s="2">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.27430555555555552</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1715,12 +1517,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1732,7 +1534,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/泰国.xlsx
+++ b/泰国.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>护照</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方案3（推荐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天津滨海到普吉机场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,6 +321,42 @@
   </si>
   <si>
     <t>去程方案2+返程方案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津到清迈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非凡旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海到清迈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1676元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清迈到天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去程机票（不建议清迈航班）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返程机票（不建议清迈航班）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +853,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -843,7 +875,7 @@
   <dimension ref="A2:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -975,13 +1007,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2">
         <v>0.3888888888888889</v>
@@ -990,10 +1022,10 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1011,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>43</v>
@@ -1022,7 +1054,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1035,13 +1067,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2">
         <v>0.57291666666666663</v>
@@ -1050,7 +1082,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -1071,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>43</v>
@@ -1110,13 +1142,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2">
         <v>0.875</v>
@@ -1125,10 +1157,10 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
         <v>74</v>
-      </c>
-      <c r="H30" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1142,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>43</v>
@@ -1161,13 +1193,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2">
         <v>0.17361111111111113</v>
@@ -1176,7 +1208,7 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1190,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>43</v>
@@ -1198,12 +1230,12 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1254,7 @@
   <dimension ref="A2:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1268,13 +1300,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>0.83680555555555547</v>
@@ -1283,7 +1315,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
@@ -1304,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>43</v>
@@ -1336,13 +1368,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2">
         <v>0.55555555555555558</v>
@@ -1351,7 +1383,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
@@ -1368,7 +1400,7 @@
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>43</v>
@@ -1376,14 +1408,14 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1401,10 +1433,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B4:G38"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1416,80 +1448,98 @@
     <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:7">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="5:7">
+    <row r="5" spans="1:8">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="7" spans="5:7">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="5:7">
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="5:7">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="14" spans="5:7">
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="5:7">
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="E31" s="2"/>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="38" spans="5:6">
-      <c r="E38" s="2"/>
+    <row r="9" spans="1:8">
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/泰国.xlsx
+++ b/泰国.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20415" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="准备工作" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>护照</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,139 +224,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去程</t>
+    <t>976元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1346元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海到普吉机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能需提前购买托运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1027元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非凡旅行（GS7905-GS7953）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普吉机场到天津滨海T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非凡旅行（CZ6054-CZ3301）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1697元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往返机票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOTOGATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海到曼谷廊曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>748元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼谷廊曼到天津滨海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>809元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去程+返程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>887元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去程方案2+返程方案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津到清迈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非凡旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津滨海到清迈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1676元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清迈到天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去程机票（不建议清迈航班）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返程机票（不建议清迈航班）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>苏梅岛只能从泰国内陆出发 除非你很有钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>976元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1346元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津滨海到普吉机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能需提前购买托运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1027元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非凡旅行（GS7905-GS7953）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普吉机场到天津滨海T2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非凡旅行（CZ6054-CZ3301）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1697元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往返机票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOTOGATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津滨海到曼谷廊曼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>748元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曼谷廊曼到天津滨海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>809元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去程+返程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>887元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去程方案2+返程方案1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津到清迈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非凡旅行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津滨海到清迈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1676元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清迈到天津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去程机票（不建议清迈航班）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返程机票（不建议清迈航班）</t>
+  </si>
+  <si>
+    <t>行程</t>
+  </si>
+  <si>
+    <t>苏梅岛和曼谷之间的航班很多 建议飞机 减少旅途劳顿</t>
+  </si>
+  <si>
+    <t>游玩时间</t>
+  </si>
+  <si>
+    <t>三到五天</t>
+  </si>
+  <si>
+    <t>住宿</t>
+  </si>
+  <si>
+    <t>找个有中文评价的吧- -，看起来都很好，而且从未见过如此便宜的酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirBnb/agoda/booking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +867,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -874,7 +888,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -959,7 +973,7 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
@@ -980,7 +994,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>43</v>
@@ -1007,13 +1021,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2">
         <v>0.3888888888888889</v>
@@ -1022,10 +1036,10 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1043,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>43</v>
@@ -1054,7 +1068,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1067,13 +1081,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2">
         <v>0.57291666666666663</v>
@@ -1082,7 +1096,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -1103,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>43</v>
@@ -1142,13 +1156,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2">
         <v>0.875</v>
@@ -1157,10 +1171,10 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1174,7 +1188,7 @@
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>43</v>
@@ -1193,13 +1207,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2">
         <v>0.17361111111111113</v>
@@ -1208,7 +1222,7 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1222,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>43</v>
@@ -1230,12 +1244,12 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1300,13 +1314,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2">
         <v>0.83680555555555547</v>
@@ -1315,7 +1329,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
@@ -1336,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>43</v>
@@ -1368,13 +1382,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2">
         <v>0.55555555555555558</v>
@@ -1383,7 +1397,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
@@ -1400,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>43</v>
@@ -1408,14 +1422,14 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1450,7 +1464,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1460,7 +1474,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1482,13 +1496,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2">
         <v>0.3576388888888889</v>
@@ -1497,10 +1511,10 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1518,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>43</v>
@@ -1529,12 +1543,12 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="5:6">
@@ -1552,8 +1566,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1567,25 +1581,44 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="E16" s="2"/>
